--- a/Database design/Sample data.xlsx
+++ b/Database design/Sample data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techzones\Documents\Workplace\bbv Vietnam\MentorHub Project\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techzones\Documents\Workplace\bbv Vietnam\MentorHub Project\Database design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785DBF6-C1DE-4EA7-A918-487E42E5754A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221E8DB-9B3D-41C9-960F-C19147802F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{99FE115D-2F28-4172-B514-473596BBF23A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{99FE115D-2F28-4172-B514-473596BBF23A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Home" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="138">
   <si>
     <t>Glassy Inc</t>
   </si>
@@ -332,6 +333,114 @@
   </si>
   <si>
     <t>appointment_participant</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>mentee</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>manage channel</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>edit channel</t>
+  </si>
+  <si>
+    <t>create channel</t>
+  </si>
+  <si>
+    <t>path_id</t>
+  </si>
+  <si>
+    <t>total_replies</t>
+  </si>
+  <si>
+    <t>attachment_id</t>
+  </si>
+  <si>
+    <t>original_workspace_id</t>
+  </si>
+  <si>
+    <t>message_reaction</t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>emoji_unicode</t>
+  </si>
+  <si>
+    <t>asdhjakshd</t>
+  </si>
+  <si>
+    <t>asdjasdh</t>
+  </si>
+  <si>
+    <t>fsdfsd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
+    <t>mat cuoi</t>
+  </si>
+  <si>
+    <t>huhu</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>vua khoc vua cuoi</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>emoji_id</t>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>workspace owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>poll_question</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>what do you want to eat ?</t>
+  </si>
+  <si>
+    <t>what did you do yesterday</t>
+  </si>
+  <si>
+    <t>poll_answer</t>
   </si>
 </sst>
 </file>
@@ -339,7 +448,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -397,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,14 +514,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,47 +532,188 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="187">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -468,103 +721,83 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -572,76 +805,157 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -805,275 +1119,467 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{431414D0-0670-477C-83DD-1785EF15B5E2}" name="Table2" displayName="Table2" ref="A2:B4" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{431414D0-0670-477C-83DD-1785EF15B5E2}" name="Table2" displayName="Table2" ref="A2:B4" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
   <autoFilter ref="A2:B4" xr:uid="{431414D0-0670-477C-83DD-1785EF15B5E2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AFF478C3-4BCD-40EA-A532-3BABA522A98F}" name="id" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{1B32631B-DACE-4FCD-A2EA-2634B870BFBD}" name="name" dataDxfId="117"/>
+    <tableColumn id="1" xr3:uid="{AFF478C3-4BCD-40EA-A532-3BABA522A98F}" name="id" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{1B32631B-DACE-4FCD-A2EA-2634B870BFBD}" name="name" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C21E1046-BA24-41E2-A374-CB5E1CF8BE40}" name="Table111" displayName="Table111" ref="H12:L17" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C21E1046-BA24-41E2-A374-CB5E1CF8BE40}" name="Table111" displayName="Table111" ref="H12:L17" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="H12:L17" xr:uid="{C21E1046-BA24-41E2-A374-CB5E1CF8BE40}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1863F049-01B5-4A37-A658-EF0F216F3BB8}" name="id" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{165D60EC-76A8-4A33-850E-B859422D4A72}" name="email" dataDxfId="76" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{23F8B335-4D1D-42EA-A217-CDC3B8AB9818}" name="full_name" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{A06BECDD-9D65-4748-82C3-5B0C682F9117}" name="birthday" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{1B04C78E-FC20-49FC-8189-4B8025B45446}" name="last_active_at" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{1863F049-01B5-4A37-A658-EF0F216F3BB8}" name="id" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{165D60EC-76A8-4A33-850E-B859422D4A72}" name="email" dataDxfId="139" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{23F8B335-4D1D-42EA-A217-CDC3B8AB9818}" name="full_name" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{A06BECDD-9D65-4748-82C3-5B0C682F9117}" name="birthday" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{1B04C78E-FC20-49FC-8189-4B8025B45446}" name="last_active_at" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{546A9E76-C334-427A-BC47-4CD20EC9CB5F}" name="Table312" displayName="Table312" ref="A12:F17" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{546A9E76-C334-427A-BC47-4CD20EC9CB5F}" name="Table312" displayName="Table312" ref="A12:F17" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A12:F17" xr:uid="{546A9E76-C334-427A-BC47-4CD20EC9CB5F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EEA90744-9AA3-4CA3-A5ED-EA8001A744AA}" name="wordspace_id" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{3EBA30D4-9EA7-4A25-8037-43401638813D}" name="user_id" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{16456D9E-8F22-4999-B650-97F76A6AC450}" name="role_id" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{DD82E024-4BE7-41C4-A69F-22E49258517F}" name="is_invited" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{43852679-8CCF-4941-BDB2-EB79CFE9BE49}" name="join_at" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{7C9DD4F1-C387-4477-BB9B-5C260BAFB163}" name="left_at" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{EEA90744-9AA3-4CA3-A5ED-EA8001A744AA}" name="wordspace_id" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{3EBA30D4-9EA7-4A25-8037-43401638813D}" name="user_id" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{16456D9E-8F22-4999-B650-97F76A6AC450}" name="role_id" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{DD82E024-4BE7-41C4-A69F-22E49258517F}" name="is_invited" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{43852679-8CCF-4941-BDB2-EB79CFE9BE49}" name="join_at" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{7C9DD4F1-C387-4477-BB9B-5C260BAFB163}" name="left_at" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5547F029-38B6-490B-9E21-EEA60B0EE6B4}" name="Table12" displayName="Table12" ref="A21:F26" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5547F029-38B6-490B-9E21-EEA60B0EE6B4}" name="Table12" displayName="Table12" ref="A21:F26" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A21:F26" xr:uid="{5547F029-38B6-490B-9E21-EEA60B0EE6B4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8CB2FA8E-676E-45F3-83EC-D63F06862BE5}" name="id" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{8B71E1CD-DE3B-4941-B22E-A4D87FEB434F}" name="sender_id" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{41B5B92A-D45F-4D6E-9D62-BD2373051D74}" name="content" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{86259D10-1080-4C53-89B7-FD5B6CFAB2FB}" name="channel_id" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{BB96CF58-1D65-4E5F-A266-0CA7D5A32CB9}" name="dm_id" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{E4F6EF72-834E-4800-A669-F3D037E5CA7E}" name="parent_id" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{8CB2FA8E-676E-45F3-83EC-D63F06862BE5}" name="id" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{8B71E1CD-DE3B-4941-B22E-A4D87FEB434F}" name="sender_id" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{41B5B92A-D45F-4D6E-9D62-BD2373051D74}" name="content" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{86259D10-1080-4C53-89B7-FD5B6CFAB2FB}" name="channel_id" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{BB96CF58-1D65-4E5F-A266-0CA7D5A32CB9}" name="dm_id" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{E4F6EF72-834E-4800-A669-F3D037E5CA7E}" name="parent_id" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{64F6F7D3-DB22-457D-B9CB-37CF45ABB051}" name="Table514" displayName="Table514" ref="E2:H5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{64F6F7D3-DB22-457D-B9CB-37CF45ABB051}" name="Table514" displayName="Table514" ref="E2:H5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="E2:H5" xr:uid="{64F6F7D3-DB22-457D-B9CB-37CF45ABB051}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{28E20F30-53F8-4B9B-844C-642766E4614C}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{6BA51F9C-471D-4A83-A24C-EEA6C2485320}" name="workspace_id" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{F235C5E1-82EF-4AF9-A7AE-DA50227B690F}" name="name" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{2624DFDB-282D-49C1-8DA1-DEDF1FEDB449}" name="is_private" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{28E20F30-53F8-4B9B-844C-642766E4614C}" name="id" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{6BA51F9C-471D-4A83-A24C-EEA6C2485320}" name="workspace_id" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{F235C5E1-82EF-4AF9-A7AE-DA50227B690F}" name="name" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{2624DFDB-282D-49C1-8DA1-DEDF1FEDB449}" name="is_private" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D39E1C93-86E1-4B9D-ABEC-C4F409CEB3D5}" name="Table14" displayName="Table14" ref="F29:G33" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D39E1C93-86E1-4B9D-ABEC-C4F409CEB3D5}" name="Table14" displayName="Table14" ref="F29:G33" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="F29:G33" xr:uid="{D39E1C93-86E1-4B9D-ABEC-C4F409CEB3D5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B4FE28B1-8388-461C-9F1A-A296051964F0}" name="id" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{CBCC0E3A-8763-4E32-B6FC-AD12DC63F9D8}" name="name" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{B4FE28B1-8388-461C-9F1A-A296051964F0}" name="id" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{CBCC0E3A-8763-4E32-B6FC-AD12DC63F9D8}" name="name" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1FD400A1-ECBA-4792-A169-A3728AC9FC2E}" name="Table15" displayName="Table15" ref="A29:D32" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1FD400A1-ECBA-4792-A169-A3728AC9FC2E}" name="Table15" displayName="Table15" ref="A29:D32" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A29:D32" xr:uid="{1FD400A1-ECBA-4792-A169-A3728AC9FC2E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{94FCD482-A52C-4515-80B4-61D500F24033}" name="id" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{6F16D29D-C9BE-4A9D-822E-96E59CF4DADA}" name="user1" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{D73AF3AA-188B-43F9-AE39-E6F408FFD721}" name="user2" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{075FE531-C30C-48BD-AD25-595F88E18897}" name="status" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{94FCD482-A52C-4515-80B4-61D500F24033}" name="id" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{6F16D29D-C9BE-4A9D-822E-96E59CF4DADA}" name="user1" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{D73AF3AA-188B-43F9-AE39-E6F408FFD721}" name="user2" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{075FE531-C30C-48BD-AD25-595F88E18897}" name="status" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DDF80535-EF9B-46DD-8BC2-77873BFEBB46}" name="Table16" displayName="Table16" ref="K2:O5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DDF80535-EF9B-46DD-8BC2-77873BFEBB46}" name="Table16" displayName="Table16" ref="K2:O5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="K2:O5" xr:uid="{DDF80535-EF9B-46DD-8BC2-77873BFEBB46}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BB5D5157-E63A-4EAD-8989-29527253AF6A}" name="id " dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{A495B7E0-FEAF-48C5-B768-E7B4572DE752}" name="user_id" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{E12B39DD-2CA3-423F-AAE0-0A2A0A5323BB}" name="notification_type_id" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{8830F03C-2269-4FBB-9626-DF9B442BF8E1}" name="title" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{314C0756-B5DA-4D44-84AB-BB8162CF98D8}" name="message" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{BB5D5157-E63A-4EAD-8989-29527253AF6A}" name="id " dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{A495B7E0-FEAF-48C5-B768-E7B4572DE752}" name="user_id" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{E12B39DD-2CA3-423F-AAE0-0A2A0A5323BB}" name="notification_type_id" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{8830F03C-2269-4FBB-9626-DF9B442BF8E1}" name="title" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{314C0756-B5DA-4D44-84AB-BB8162CF98D8}" name="message" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{72ED8BA9-D03C-4357-89A7-0637505C125E}" name="Table19" displayName="Table19" ref="Q2:R4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{72ED8BA9-D03C-4357-89A7-0637505C125E}" name="Table19" displayName="Table19" ref="Q2:R4" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="Q2:R4" xr:uid="{72ED8BA9-D03C-4357-89A7-0637505C125E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D49AA085-5D85-4866-8003-BD92BEB4ECD0}" name="id" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{4B0DD9F4-7DFE-403D-98F1-175F3FC4937B}" name="name" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{D49AA085-5D85-4866-8003-BD92BEB4ECD0}" name="id" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{4B0DD9F4-7DFE-403D-98F1-175F3FC4937B}" name="name" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BC1E6201-477F-4862-B880-F30BB98BC1CA}" name="Table20" displayName="Table20" ref="N12:S14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BC1E6201-477F-4862-B880-F30BB98BC1CA}" name="Table20" displayName="Table20" ref="N12:S14" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="N12:S14" xr:uid="{BC1E6201-477F-4862-B880-F30BB98BC1CA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2ACB61E9-9AF1-4533-8117-39265807B370}" name="id" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{2E4AB8B9-6778-472F-9AF1-FF3B64C1248C}" name="owner_id" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{997D26E6-7EFD-4EBF-990A-EF9A85B8ED2D}" name="name" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{C3EB5295-C849-4700-994C-9E500282203E}" name="date" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{0EA818FB-D98A-44E8-A009-6D4385DC564E}" name="start_at" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{98ED195E-0B05-4A30-B590-DFF0B483E7B9}" name="end_at" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2ACB61E9-9AF1-4533-8117-39265807B370}" name="id" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{2E4AB8B9-6778-472F-9AF1-FF3B64C1248C}" name="owner_id" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{997D26E6-7EFD-4EBF-990A-EF9A85B8ED2D}" name="name" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{C3EB5295-C849-4700-994C-9E500282203E}" name="date" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{0EA818FB-D98A-44E8-A009-6D4385DC564E}" name="start_at" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{98ED195E-0B05-4A30-B590-DFF0B483E7B9}" name="end_at" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{1E166DEF-7DA5-47F0-98CB-5D256BB95CFA}" name="Table21" displayName="Table21" ref="N29:P31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{1E166DEF-7DA5-47F0-98CB-5D256BB95CFA}" name="Table21" displayName="Table21" ref="N29:P31" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="N29:P31" xr:uid="{1E166DEF-7DA5-47F0-98CB-5D256BB95CFA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54D0E4F0-65A7-453D-9A63-BB29FEACC84D}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{9EF64D25-B39E-446F-ADD4-EC51E794127E}" name="channel_id" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{ADDA3C01-B5B8-4214-96D2-D3FF642F9F4F}" name="created_by" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{54D0E4F0-65A7-453D-9A63-BB29FEACC84D}" name="id" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{9EF64D25-B39E-446F-ADD4-EC51E794127E}" name="channel_id" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{ADDA3C01-B5B8-4214-96D2-D3FF642F9F4F}" name="created_by" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48743BCF-731C-42FE-83FC-3061C15554BD}" name="Table3" displayName="Table3" ref="A7:D12" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48743BCF-731C-42FE-83FC-3061C15554BD}" name="Table3" displayName="Table3" ref="A7:D12" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
   <autoFilter ref="A7:D12" xr:uid="{48743BCF-731C-42FE-83FC-3061C15554BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E581E434-86FA-44BA-A655-9258B630D8C1}" name="wordspace_id" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{1B1CF439-C050-4CAC-BFA2-6ED45E652FA4}" name="user_id" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{267A729C-19BF-4741-930C-87A471BBB747}" name="role_id" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{5FE59F20-FAC8-4D7E-96FC-E5E53A6BED7B}" name="is_accepted" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{E581E434-86FA-44BA-A655-9258B630D8C1}" name="wordspace_id" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{1B1CF439-C050-4CAC-BFA2-6ED45E652FA4}" name="user_id" dataDxfId="179"/>
+    <tableColumn id="3" xr3:uid="{267A729C-19BF-4741-930C-87A471BBB747}" name="role_id" dataDxfId="178"/>
+    <tableColumn id="5" xr3:uid="{5FE59F20-FAC8-4D7E-96FC-E5E53A6BED7B}" name="is_accepted" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BE8E061B-847D-4129-955A-B6D2C76EB47A}" name="Table22" displayName="Table22" ref="R27:S29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BE8E061B-847D-4129-955A-B6D2C76EB47A}" name="Table22" displayName="Table22" ref="R27:S29" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="R27:S29" xr:uid="{BE8E061B-847D-4129-955A-B6D2C76EB47A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{318CB103-9F9B-4DCE-9502-AC76E8CDEBA0}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{D4A2CCA6-6BAF-4F3C-8EB3-4ACBC210D169}" name="name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{318CB103-9F9B-4DCE-9502-AC76E8CDEBA0}" name="id" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{D4A2CCA6-6BAF-4F3C-8EB3-4ACBC210D169}" name="name" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{01ED33F3-F7A9-4F6F-9771-DB588E398160}" name="Table23" displayName="Table23" ref="N18:P25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{01ED33F3-F7A9-4F6F-9771-DB588E398160}" name="Table23" displayName="Table23" ref="N18:P25" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="N18:P25" xr:uid="{01ED33F3-F7A9-4F6F-9771-DB588E398160}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F4BC029-7EDE-44D6-B369-88670B0368EA}" name="meeting_id" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F5D33930-9531-410A-B0DF-EFBBBB11BB94}" name="user_id" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{8DB81D8A-B5D5-4901-A06C-B6F43E8006C5}" name="status" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4F4BC029-7EDE-44D6-B369-88670B0368EA}" name="meeting_id" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{F5D33930-9531-410A-B0DF-EFBBBB11BB94}" name="user_id" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{8DB81D8A-B5D5-4901-A06C-B6F43E8006C5}" name="status" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2B2465FF-C4CA-44E6-861B-7D5DD07D84EC}" name="Table2325" displayName="Table2325" ref="N34:P41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2B2465FF-C4CA-44E6-861B-7D5DD07D84EC}" name="Table2325" displayName="Table2325" ref="N34:P41" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="N34:P41" xr:uid="{2B2465FF-C4CA-44E6-861B-7D5DD07D84EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{03907BE5-84A0-4B98-A78A-7DC2E9468CCA}" name="appointment_id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F550AF23-30B2-4017-8A74-78CABF74F1A3}" name="user_id" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{18B319CA-BCB6-40F4-A27B-361FBC8C7233}" name="status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{03907BE5-84A0-4B98-A78A-7DC2E9468CCA}" name="appointment_id" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{F550AF23-30B2-4017-8A74-78CABF74F1A3}" name="user_id" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{18B319CA-BCB6-40F4-A27B-361FBC8C7233}" name="status" dataDxfId="66"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{35AEB2FD-EF6F-443E-9329-1536E93DFD0E}" name="Table11118" displayName="Table11118" ref="A2:F7" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A2:F7" xr:uid="{35AEB2FD-EF6F-443E-9329-1536E93DFD0E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B8165146-D594-4D51-AAA4-58AA6C7E102E}" name="id" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{BC32580E-58F5-4F88-8C07-792C3A955259}" name="email" dataDxfId="62" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{D2DF5DAA-AA95-4F57-A5B3-53DA2F57B09D}" name="full_name" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{B9ABC4BC-0B27-4BA8-86FD-212DDAB5C866}" name="birthday" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{B944535F-D8B7-47AD-BF35-B033ADBBFCA5}" name="last_active_at" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{B7D62ED3-BE4F-4336-8A4C-B3878F44AC7B}" name="role_id" dataDxfId="58"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{7C1489A3-715A-4BFC-B1B0-B87CFAD9AD8C}" name="Table18" displayName="Table18" ref="H2:I5" totalsRowShown="0">
+  <autoFilter ref="H2:I5" xr:uid="{7C1489A3-715A-4BFC-B1B0-B87CFAD9AD8C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1570A870-00B5-4ABB-889A-7C1D698E2C82}" name="id"/>
+    <tableColumn id="2" xr3:uid="{F1B70552-BB42-477C-81BE-AA7A7F488DAE}" name="name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{6E7CC772-6ADD-4E9F-AEF2-E567EF7275B5}" name="Table26" displayName="Table26" ref="K2:N6" totalsRowShown="0">
+  <autoFilter ref="K2:N6" xr:uid="{6E7CC772-6ADD-4E9F-AEF2-E567EF7275B5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{39ED3DC7-6241-457A-A588-EE843C3FF9C2}" name="id"/>
+    <tableColumn id="2" xr3:uid="{BC91305B-23D4-4E5C-BB40-BC8D60537349}" name="role_id"/>
+    <tableColumn id="3" xr3:uid="{03C24731-6B8F-48A3-BBC5-6737E7609931}" name="name"/>
+    <tableColumn id="4" xr3:uid="{626C9CE4-BCDD-458B-9875-8EB5C847D2C4}" name="value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{8547A7BE-366F-4F85-8A74-690F8FE277BC}" name="Table2527" displayName="Table2527" ref="P2:R4" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="P2:R4" xr:uid="{8547A7BE-366F-4F85-8A74-690F8FE277BC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0DA9069D-58E3-46EE-9A3D-4B392679764B}" name="id" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B88A51ED-B460-4BB9-8475-E72E748EE45E}" name="name" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{9E324C5A-8D2A-4E8F-BA83-1A0B3A7612F6}" name="owner_id" dataDxfId="53"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EDEA6093-79F4-47FB-82C3-07F1CA1EC4D8}" name="Table31228" displayName="Table31228" ref="T2:Y7" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="T2:Y7" xr:uid="{EDEA6093-79F4-47FB-82C3-07F1CA1EC4D8}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5F6901A8-CE4F-4768-8214-205FD1C28892}" name="wordspace_id" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{D6B05F92-8C72-45F7-A8C7-13B34E440D57}" name="user_id" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{E6BF4974-1F5D-473B-BD31-85BA08F9F0E8}" name="role_id" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{56B715A4-3C57-48E3-8635-FC245D14C73D}" name="is_invited" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{695B2CCF-340F-4E54-A5DD-246E91EE4885}" name="join_at" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{0EB53C70-F46D-4E6F-BF55-98447C67B2EC}" name="left_at" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{93AEB912-BFD5-4773-85B0-10CE01FB48D8}" name="Table1529" displayName="Table1529" ref="A11:D14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A11:D14" xr:uid="{93AEB912-BFD5-4773-85B0-10CE01FB48D8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E95E1DE6-668D-4780-B34E-541FF2C79D0E}" name="id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{1115A9D4-3DF9-40C6-BDAA-01217923FC97}" name="user1" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D3071954-93A2-4B7B-B539-D729FDFD2A89}" name="user2" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{ED5FC26B-EC3B-4E60-9775-F6512617BD13}" name="status" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{5E366174-78B2-44FE-BC13-C56BBACFFCE4}" name="Table1430" displayName="Table1430" ref="F11:G15" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="F11:G15" xr:uid="{5E366174-78B2-44FE-BC13-C56BBACFFCE4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{36E4C13F-3CE8-4421-A705-DEE8C3EC6F17}" name="id" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{5BD83D09-E998-49CE-830D-D9BF2F403568}" name="name" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CDD2799-8F46-445C-9588-8AEC5DA6466C}" name="Table1" displayName="Table1" ref="F2:H7" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CDD2799-8F46-445C-9588-8AEC5DA6466C}" name="Table1" displayName="Table1" ref="F2:H7" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
   <autoFilter ref="F2:H7" xr:uid="{3CDD2799-8F46-445C-9588-8AEC5DA6466C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{69CCEBFA-A057-4AAA-987F-9FF4C6CAA3B2}" name="id" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{8A8C96C6-8C81-4EC2-AD93-B5BEB05C09FA}" name="email" dataDxfId="107" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{9B2B5D8E-B9F0-40E8-84F2-998F9AF9D47A}" name="full_name" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{69CCEBFA-A057-4AAA-987F-9FF4C6CAA3B2}" name="id" dataDxfId="174"/>
+    <tableColumn id="2" xr3:uid="{8A8C96C6-8C81-4EC2-AD93-B5BEB05C09FA}" name="email" dataDxfId="173" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{9B2B5D8E-B9F0-40E8-84F2-998F9AF9D47A}" name="full_name" dataDxfId="172"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D1DF6FC-32A7-4F44-953F-1ECF8DC48DFF}" name="Table831" displayName="Table831" ref="A19:B23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A19:B23" xr:uid="{1D1DF6FC-32A7-4F44-953F-1ECF8DC48DFF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{31A1822E-0B6F-40AF-AF11-6F070A8D68C6}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{68A3855A-940A-46B1-9F1B-54107D64AB96}" name="type" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{6C74920E-A042-49F3-A008-3C462F3C02D2}" name="Table932" displayName="Table932" ref="D19:F24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="D19:F24" xr:uid="{6C74920E-A042-49F3-A008-3C462F3C02D2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{45DACA79-6A03-48B8-A04C-C5CD8028ECDB}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{FACA33A5-9825-46C3-B424-4A2EFD45FF2A}" name="attachment_type_id" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{0FEEFB3D-EAEA-4F92-9610-9DC56CF5C1B2}" name="path_id" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{855C1A5C-5715-4B4B-A2E4-B86541EA1223}" name="Table1233" displayName="Table1233" ref="J11:Q16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="J11:Q16" xr:uid="{855C1A5C-5715-4B4B-A2E4-B86541EA1223}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6ECAC1EF-EDB3-4AE0-A191-096B6FBBD734}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{3CDA3CEA-746A-46BA-A744-6BC312D1BCCC}" name="sender_id" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{ED5989F0-B993-4D7C-9183-BC6C057B06FB}" name="content" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{882AFCCD-69DB-475F-8E92-156229780C8B}" name="channel_id" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1111AA67-CEBF-499B-A5EA-7329D53EDA22}" name="dm_id" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{028B2B0F-11FC-48B8-8A06-3EDF209A550D}" name="parent_id" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A9512C85-4A4E-40CD-9279-D802E323CC98}" name="total_replies" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{BA426FA8-0E8C-47CB-A5D7-7FDDDB6C252F}" name="attachment_id" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{8BEF78B4-5BCE-41D4-BA22-16DC12ED7D5E}" name="Table534" displayName="Table534" ref="T11:W14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="T11:W14" xr:uid="{8BEF78B4-5BCE-41D4-BA22-16DC12ED7D5E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{276C33B7-E20E-4C57-9C05-7B8CDE0DF0B2}" name="channel" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{1AAF24B5-FF93-4726-AE08-79E304EFFBB3}" name="workspace_id" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A75F3688-B3A1-4710-A173-7971C36970AC}" name="name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{147FDE96-8002-4F2F-A4E6-A26266213F41}" name="is_private" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E67C941B-3439-4B64-839E-D8847F649A86}" name="Table635" displayName="Table635" ref="T17:V18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="T17:V18" xr:uid="{E67C941B-3439-4B64-839E-D8847F649A86}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ADA9AAD9-70EE-4AEF-9E0A-718CA9E2D371}" name="channel_id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E11C9CC8-3B4F-404F-8D82-7B0D778AB9C0}" name="original_workspace_id" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D8812B4D-D35E-4FAA-B520-30D811151D9A}" name="target_workspace_id" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{E7819F49-C755-40F7-BB8C-4A1D5AAC30D1}" name="Table35" displayName="Table35" ref="D27:F32" totalsRowShown="0">
+  <autoFilter ref="D27:F32" xr:uid="{E7819F49-C755-40F7-BB8C-4A1D5AAC30D1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7047AB26-6BD2-4B1E-9870-97EC03D9D01E}" name="id"/>
+    <tableColumn id="2" xr3:uid="{5E39DD22-EEFD-4B9F-A832-660B9E321369}" name="emoji_unicode"/>
+    <tableColumn id="3" xr3:uid="{7A5849CE-7EA6-4D57-AA37-18C6C0728329}" name="name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{7328AE69-745E-4A9E-B863-508E2D342640}" name="Table36" displayName="Table36" ref="J19:M22" totalsRowShown="0">
+  <autoFilter ref="J19:M22" xr:uid="{7328AE69-745E-4A9E-B863-508E2D342640}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9B1342B5-0164-4A18-B752-37FC8F3A1972}" name="emoji_id"/>
+    <tableColumn id="2" xr3:uid="{CA89E9B9-65F1-4DAE-A356-62AC1400BCF6}" name="user_id"/>
+    <tableColumn id="3" xr3:uid="{63F3B35F-82E5-48B2-AF38-D0E76E1E049E}" name="message_id"/>
+    <tableColumn id="4" xr3:uid="{0D3F02CB-A314-4850-A750-31BB94BE75D9}" name="time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{7C844E01-EC19-42A3-B52E-80A631A57D44}" name="Table738" displayName="Table738" ref="T21:V25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="T21:V25" xr:uid="{7C844E01-EC19-42A3-B52E-80A631A57D44}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C65895A0-F515-4FFD-8059-5E7E75C4A27A}" name="channel_id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1971DCDB-24AF-4F6A-82A0-A823ECC117A6}" name="user_id" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DAB8DABC-ACF8-4617-B6C3-4DE1E3AB1E5A}" name="role_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B3B16EAD-A309-425B-824B-445B52612F05}" name="Table5" displayName="Table5" ref="A15:D18" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B3B16EAD-A309-425B-824B-445B52612F05}" name="Table5" displayName="Table5" ref="A15:D18" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
   <autoFilter ref="A15:D18" xr:uid="{B3B16EAD-A309-425B-824B-445B52612F05}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{39C685A0-3E8F-46D9-8D6D-6199A5489E21}" name="channel" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{76BD2B41-7966-4781-86AB-4F8076D19C26}" name="workspace_id" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{978E7E9B-4A42-43A3-BD6D-094F9403EE85}" name="name" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{7C184347-2E42-43D3-98A1-1D153097678E}" name="is_private" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{39C685A0-3E8F-46D9-8D6D-6199A5489E21}" name="channel" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{76BD2B41-7966-4781-86AB-4F8076D19C26}" name="workspace_id" dataDxfId="168"/>
+    <tableColumn id="3" xr3:uid="{978E7E9B-4A42-43A3-BD6D-094F9403EE85}" name="name" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{7C184347-2E42-43D3-98A1-1D153097678E}" name="is_private" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A733CEC7-D987-4104-9023-4147191C6B48}" name="Table6" displayName="Table6" ref="A21:B22" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A733CEC7-D987-4104-9023-4147191C6B48}" name="Table6" displayName="Table6" ref="A21:B22" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
   <autoFilter ref="A21:B22" xr:uid="{A733CEC7-D987-4104-9023-4147191C6B48}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{48419D2B-2C16-4588-872C-1E91E9857D4C}" name="channel_id" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{804AC18B-2B6B-4B2C-A5FF-9615466D9247}" name="target_workspace_id" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{48419D2B-2C16-4588-872C-1E91E9857D4C}" name="channel_id" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{804AC18B-2B6B-4B2C-A5FF-9615466D9247}" name="target_workspace_id" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BDF437BA-C22C-4A8A-9C68-B928B05924AD}" name="Table7" displayName="Table7" ref="A25:C29" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BDF437BA-C22C-4A8A-9C68-B928B05924AD}" name="Table7" displayName="Table7" ref="A25:C29" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A25:C29" xr:uid="{BDF437BA-C22C-4A8A-9C68-B928B05924AD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{86CF2C12-874A-412E-A79B-BC76D9C2FA14}" name="channel_id" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{8B6378DF-2E8C-4C04-A431-9BA0592B199F}" name="user_id" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{7C89B8FA-BC8D-4CB4-97BA-7BCD9C49F441}" name="role_id" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{86CF2C12-874A-412E-A79B-BC76D9C2FA14}" name="channel_id" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{8B6378DF-2E8C-4C04-A431-9BA0592B199F}" name="user_id" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{7C89B8FA-BC8D-4CB4-97BA-7BCD9C49F441}" name="role_id" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0F2C18D9-97FE-4169-825E-9BB8460EAECF}" name="Table8" displayName="Table8" ref="A32:B36" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0F2C18D9-97FE-4169-825E-9BB8460EAECF}" name="Table8" displayName="Table8" ref="A32:B36" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A32:B36" xr:uid="{0F2C18D9-97FE-4169-825E-9BB8460EAECF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0CA9E4FE-1C14-47DC-96AF-E3ACBB837060}" name="id" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{3A31942C-E9C3-4147-B3F9-FA2B7BEC5660}" name="type" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{0CA9E4FE-1C14-47DC-96AF-E3ACBB837060}" name="id" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{3A31942C-E9C3-4147-B3F9-FA2B7BEC5660}" name="type" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CC665D84-3887-4802-94A6-964E275AF65D}" name="Table9" displayName="Table9" ref="D32:F37" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CC665D84-3887-4802-94A6-964E275AF65D}" name="Table9" displayName="Table9" ref="D32:F37" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
   <autoFilter ref="D32:F37" xr:uid="{CC665D84-3887-4802-94A6-964E275AF65D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{69FC3DA3-76C7-448E-8D0A-D5EBC6B6F15A}" name="id" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{7E5DCC46-271C-4176-AF54-569675369316}" name="attachment_type_id" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{1E8DD919-6B77-4BC2-9F2D-0DDB286D8B45}" name="path" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{69FC3DA3-76C7-448E-8D0A-D5EBC6B6F15A}" name="id" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{7E5DCC46-271C-4176-AF54-569675369316}" name="attachment_type_id" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{1E8DD919-6B77-4BC2-9F2D-0DDB286D8B45}" name="path" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4728AC0B-19AB-4096-8D43-EDC987A3A607}" name="Table25" displayName="Table25" ref="A2:C4" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4728AC0B-19AB-4096-8D43-EDC987A3A607}" name="Table25" displayName="Table25" ref="A2:C4" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="A2:C4" xr:uid="{4728AC0B-19AB-4096-8D43-EDC987A3A607}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A8E900E4-88A3-44C8-8E56-5062B5EFF9BF}" name="id" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{B452F083-F396-46C5-AAD9-19ACBEB718A4}" name="name" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{178AF2CD-0751-4A43-99B2-8125F44978BA}" name="owner_id" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{A8E900E4-88A3-44C8-8E56-5062B5EFF9BF}" name="id" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{B452F083-F396-46C5-AAD9-19ACBEB718A4}" name="name" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{178AF2CD-0751-4A43-99B2-8125F44978BA}" name="owner_id" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1379,7 +1885,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D18"/>
+      <selection activeCell="A24" sqref="A24:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,15 +1902,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1469,12 +1975,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -1564,12 +2070,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1628,10 +2134,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1650,11 +2156,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1700,15 +2206,15 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1808,14 +2314,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1843,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D7303-937C-499F-8875-C181DE84C177}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,28 +2378,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2057,30 +2563,30 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2145,10 +2651,10 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -2158,10 +2664,10 @@
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>45571</v>
       </c>
       <c r="N13" s="1">
@@ -2173,13 +2679,13 @@
       <c r="P13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -2193,10 +2699,10 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="H14" s="1">
         <v>2</v>
       </c>
@@ -2206,10 +2712,10 @@
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>45571</v>
       </c>
       <c r="N14" s="1">
@@ -2221,13 +2727,13 @@
       <c r="P14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2241,10 +2747,10 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="H15" s="1">
         <v>3</v>
       </c>
@@ -2254,10 +2760,10 @@
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>45571</v>
       </c>
     </row>
@@ -2271,10 +2777,10 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="H16" s="1">
         <v>4</v>
       </c>
@@ -2284,10 +2790,10 @@
       <c r="J16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>45571</v>
       </c>
     </row>
@@ -2301,10 +2807,10 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
         <v>45571</v>
       </c>
       <c r="H17" s="1">
@@ -2316,17 +2822,17 @@
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>45571</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N18" s="1" t="s">
@@ -2351,14 +2857,14 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="N20" s="1">
         <v>1</v>
       </c>
@@ -2503,10 +3009,10 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R27" s="1" t="s">
@@ -2517,21 +3023,21 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="N28" s="3" t="s">
+      <c r="G28" s="6"/>
+      <c r="N28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
       <c r="R28" s="1">
         <v>1</v>
       </c>
@@ -2659,11 +3165,11 @@
       <c r="G33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
     </row>
     <row r="34" spans="6:16" x14ac:dyDescent="0.25">
       <c r="N34" s="1" t="s">
@@ -2755,20 +3261,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="N17:P17"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="R26:S26"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A20:F20"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R26:S26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2796,4 +3302,1068 @@
     <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F109FFE-9772-4C64-BADE-1F69D740956F}">
+  <dimension ref="A1:Y50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="T1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45571</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45571</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45571</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45571</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45571</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="T10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="T16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2</v>
+      </c>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3</v>
+      </c>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" t="s">
+        <v>137</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5B4C9419-EFB7-4445-9649-E0D0856E3654}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{084CAD01-8202-4F93-AD23-CA1FA03BFA39}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{50646506-6955-4D67-9A85-0BC607385AA3}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{AB1CA8F5-2808-4AC1-90DD-619B7E0B46E9}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{729928E5-39A3-40BF-8F0F-BBF75A5F9121}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="15">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+  </tableParts>
+</worksheet>
 </file>